--- a/generated_tables/io_d_sub_sd_stamped_formed_high_temp_straight_pcb_patterns.xlsx
+++ b/generated_tables/io_d_sub_sd_stamped_formed_high_temp_straight_pcb_patterns.xlsx
@@ -19,28 +19,28 @@
     <t>PART NUMBER</t>
   </si>
   <si>
-    <t>ROHS_COMPLIANT</t>
-  </si>
-  <si>
-    <t>STANDARD_DENSITY</t>
-  </si>
-  <si>
-    <t>SHELL_SIZE</t>
-  </si>
-  <si>
-    <t>MOUNTING_OPTIONS</t>
-  </si>
-  <si>
-    <t>CONTACT_TYPE</t>
+    <t>ROHS COMPLIANT</t>
+  </si>
+  <si>
+    <t>STANDARD DENSITY</t>
+  </si>
+  <si>
+    <t>SHELL SIZE</t>
+  </si>
+  <si>
+    <t>MOUNTING OPTIONS</t>
+  </si>
+  <si>
+    <t>CONTACT TYPE</t>
   </si>
   <si>
     <t>TERMINATION</t>
   </si>
   <si>
-    <t>BOARD_MOUNTING_OPTIO</t>
-  </si>
-  <si>
-    <t>CONTACT_PLATING</t>
+    <t>BOARD MOUNTING OPTIONS</t>
+  </si>
+  <si>
+    <t>CONTACT PLATING</t>
   </si>
   <si>
     <t>PACKAGING</t>
